--- a/Analysis/Timbre Analysis.xlsx
+++ b/Analysis/Timbre Analysis.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>No of layers</t>
   </si>
@@ -99,6 +99,138 @@
   </si>
   <si>
     <t>20,45,20,14</t>
+  </si>
+  <si>
+    <t>5,12</t>
+  </si>
+  <si>
+    <t>8,5</t>
+  </si>
+  <si>
+    <t>5,13</t>
+  </si>
+  <si>
+    <t>3,8</t>
+  </si>
+  <si>
+    <t>9,5</t>
+  </si>
+  <si>
+    <t>5,9</t>
+  </si>
+  <si>
+    <t>9,2</t>
+  </si>
+  <si>
+    <t>9,9</t>
+  </si>
+  <si>
+    <t>2,9</t>
+  </si>
+  <si>
+    <t>3,9</t>
+  </si>
+  <si>
+    <t>2,10</t>
+  </si>
+  <si>
+    <t>2,8</t>
+  </si>
+  <si>
+    <t>2,9,5</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>3,9,5</t>
+  </si>
+  <si>
+    <t>8,3</t>
+  </si>
+  <si>
+    <t>5,8,5</t>
+  </si>
+  <si>
+    <t>8,5,3</t>
+  </si>
+  <si>
+    <t>8,4</t>
+  </si>
+  <si>
+    <t>8,6</t>
+  </si>
+  <si>
+    <t>8,7</t>
+  </si>
+  <si>
+    <t>8,6,4</t>
+  </si>
+  <si>
+    <t>8,6,8</t>
+  </si>
+  <si>
+    <t>8,5,13</t>
+  </si>
+  <si>
+    <t>8,5,10</t>
+  </si>
+  <si>
+    <t>7,5,10</t>
+  </si>
+  <si>
+    <t>7,6,10</t>
+  </si>
+  <si>
+    <t>7,8,13</t>
+  </si>
+  <si>
+    <t>7,13,13</t>
+  </si>
+  <si>
+    <t>13,13,13</t>
+  </si>
+  <si>
+    <t>20,4</t>
+  </si>
+  <si>
+    <t>4,5,4</t>
+  </si>
+  <si>
+    <t>4,20,4</t>
+  </si>
+  <si>
+    <t>20,20,4</t>
+  </si>
+  <si>
+    <t>20,4,20</t>
+  </si>
+  <si>
+    <t>20,20,20</t>
+  </si>
+  <si>
+    <t>20,20,20,20</t>
+  </si>
+  <si>
+    <t>4,20,20</t>
+  </si>
+  <si>
+    <t>60,4</t>
+  </si>
+  <si>
+    <t>5,5,5</t>
+  </si>
+  <si>
+    <t>5,20</t>
+  </si>
+  <si>
+    <t>10,10</t>
+  </si>
+  <si>
+    <t>17,10</t>
+  </si>
+  <si>
+    <t>18,13</t>
   </si>
 </sst>
 </file>
@@ -130,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +287,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -168,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -179,28 +317,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -483,10 +630,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L181"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="A32:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,20 +688,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -692,18 +840,18 @@
         <v>5</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" ref="H6:H69" si="0">A6*B6</f>
+        <f t="shared" ref="H6:H89" si="0">A6*B6</f>
         <v>60</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" ref="I6:I69" si="1">A6*C6</f>
+        <f t="shared" ref="I6:I89" si="1">A6*C6</f>
         <v>20</v>
       </c>
       <c r="J6" s="3">
         <v>9</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" ref="K6:K69" si="2">J6*100/I6</f>
+        <f t="shared" ref="K6:K89" si="2">J6*100/I6</f>
         <v>45</v>
       </c>
     </row>
@@ -746,39 +894,39 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
         <v>15</v>
       </c>
-      <c r="C8" s="5">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
         <v>5</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="5">
-        <v>5</v>
-      </c>
-      <c r="G8" s="5">
-        <v>5</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="F8" s="4">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I8" s="5">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="I8" s="4">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J8" s="4">
         <v>14</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
@@ -1050,39 +1198,39 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>4</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4">
         <v>15</v>
       </c>
-      <c r="C16" s="5">
-        <v>5</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
         <v>13</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="5">
-        <v>5</v>
-      </c>
-      <c r="G16" s="5">
-        <v>5</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="F16" s="4">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I16" s="5">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="J16" s="5">
+      <c r="I16" s="4">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J16" s="4">
         <v>14</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
@@ -1278,39 +1426,39 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>4</v>
-      </c>
-      <c r="B22" s="5">
+      <c r="A22" s="4">
+        <v>4</v>
+      </c>
+      <c r="B22" s="4">
         <v>15</v>
       </c>
-      <c r="C22" s="5">
-        <v>5</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="5">
-        <v>5</v>
-      </c>
-      <c r="G22" s="5">
-        <v>5</v>
-      </c>
-      <c r="H22" s="5">
+      <c r="F22" s="4">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I22" s="5">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="J22" s="5">
+      <c r="I22" s="4">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J22" s="4">
         <v>14</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
@@ -1442,6 +1590,9 @@
       <c r="D26" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
       <c r="F26" s="3">
         <v>5</v>
       </c>
@@ -1465,20 +1616,20 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
@@ -1520,7 +1671,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29" s="3">
         <v>20</v>
@@ -1528,6 +1679,12 @@
       <c r="C29" s="3">
         <v>10</v>
       </c>
+      <c r="D29" s="3">
+        <v>13</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
       <c r="F29" s="3">
         <v>5</v>
       </c>
@@ -1536,15 +1693,18 @@
       </c>
       <c r="H29" s="3">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="J29" s="3">
+        <v>26</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -1557,6 +1717,12 @@
       <c r="C30" s="3">
         <v>10</v>
       </c>
+      <c r="D30" s="3">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
       <c r="F30" s="3">
         <v>5</v>
       </c>
@@ -1571,9 +1737,12 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="J30" s="3">
+        <v>23</v>
+      </c>
       <c r="K30" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -1586,6 +1755,12 @@
       <c r="C31" s="3">
         <v>10</v>
       </c>
+      <c r="D31" s="3">
+        <v>12</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
       <c r="F31" s="3">
         <v>5</v>
       </c>
@@ -1600,43 +1775,55 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="J31" s="3">
+        <v>27</v>
+      </c>
       <c r="K31" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>4</v>
-      </c>
-      <c r="B32" s="3">
-        <v>20</v>
-      </c>
-      <c r="C32" s="3">
-        <v>10</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="A32" s="14">
+        <v>4</v>
+      </c>
+      <c r="B32" s="14">
+        <v>20</v>
+      </c>
+      <c r="C32" s="14">
+        <v>10</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="14">
+        <v>2</v>
+      </c>
+      <c r="F32" s="14">
+        <v>5</v>
+      </c>
+      <c r="G32" s="14">
+        <v>5</v>
+      </c>
+      <c r="H32" s="14">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="14">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K32" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="J32" s="14">
+        <v>32</v>
+      </c>
+      <c r="K32" s="14">
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B33" s="3">
         <v>20</v>
@@ -1644,6 +1831,12 @@
       <c r="C33" s="3">
         <v>10</v>
       </c>
+      <c r="D33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
       <c r="F33" s="3">
         <v>5</v>
       </c>
@@ -1652,15 +1845,18 @@
       </c>
       <c r="H33" s="3">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="J33" s="3">
+        <v>31</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1673,6 +1869,12 @@
       <c r="C34" s="3">
         <v>10</v>
       </c>
+      <c r="D34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
       <c r="F34" s="3">
         <v>5</v>
       </c>
@@ -1687,9 +1889,12 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="J34" s="3">
+        <v>30</v>
+      </c>
       <c r="K34" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1702,6 +1907,12 @@
       <c r="C35" s="3">
         <v>10</v>
       </c>
+      <c r="D35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
       <c r="F35" s="3">
         <v>5</v>
       </c>
@@ -1716,9 +1927,12 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="J35" s="3">
+        <v>28</v>
+      </c>
       <c r="K35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -1731,6 +1945,12 @@
       <c r="C36" s="3">
         <v>10</v>
       </c>
+      <c r="D36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
       <c r="F36" s="3">
         <v>5</v>
       </c>
@@ -1745,14 +1965,17 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="J36" s="3">
+        <v>30</v>
+      </c>
       <c r="K36" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B37" s="3">
         <v>20</v>
@@ -1760,6 +1983,12 @@
       <c r="C37" s="3">
         <v>10</v>
       </c>
+      <c r="D37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
       <c r="F37" s="3">
         <v>5</v>
       </c>
@@ -1768,15 +1997,18 @@
       </c>
       <c r="H37" s="3">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="J37" s="3">
+        <v>35</v>
       </c>
       <c r="K37" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -1789,6 +2021,12 @@
       <c r="C38" s="3">
         <v>10</v>
       </c>
+      <c r="D38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
       <c r="F38" s="3">
         <v>5</v>
       </c>
@@ -1803,9 +2041,12 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="J38" s="3">
+        <v>27</v>
+      </c>
       <c r="K38" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -1818,6 +2059,12 @@
       <c r="C39" s="3">
         <v>10</v>
       </c>
+      <c r="D39" s="3">
+        <v>8</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
       <c r="F39" s="3">
         <v>5</v>
       </c>
@@ -1832,9 +2079,12 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="J39" s="3">
+        <v>28</v>
+      </c>
       <c r="K39" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -1847,6 +2097,12 @@
       <c r="C40" s="3">
         <v>10</v>
       </c>
+      <c r="D40" s="3">
+        <v>9</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
       <c r="F40" s="3">
         <v>5</v>
       </c>
@@ -1861,9 +2117,12 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="J40" s="3">
+        <v>30</v>
+      </c>
       <c r="K40" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -1876,6 +2135,12 @@
       <c r="C41" s="3">
         <v>10</v>
       </c>
+      <c r="D41" s="3">
+        <v>10</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
       <c r="F41" s="3">
         <v>5</v>
       </c>
@@ -1890,9 +2155,12 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="J41" s="3">
+        <v>25</v>
+      </c>
       <c r="K41" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -1905,6 +2173,12 @@
       <c r="C42" s="3">
         <v>10</v>
       </c>
+      <c r="D42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
       <c r="F42" s="3">
         <v>5</v>
       </c>
@@ -1919,38 +2193,50 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="J42" s="3">
+        <v>21</v>
+      </c>
       <c r="K42" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>4</v>
-      </c>
-      <c r="B43" s="3">
-        <v>20</v>
-      </c>
-      <c r="C43" s="3">
-        <v>10</v>
-      </c>
-      <c r="F43" s="3">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="A43" s="14">
+        <v>4</v>
+      </c>
+      <c r="B43" s="14">
+        <v>20</v>
+      </c>
+      <c r="C43" s="14">
+        <v>10</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="14">
+        <v>2</v>
+      </c>
+      <c r="F43" s="14">
+        <v>5</v>
+      </c>
+      <c r="G43" s="14">
+        <v>5</v>
+      </c>
+      <c r="H43" s="14">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="14">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K43" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="J43" s="14">
+        <v>33</v>
+      </c>
+      <c r="K43" s="14">
+        <f t="shared" si="2"/>
+        <v>82.5</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -1963,6 +2249,12 @@
       <c r="C44" s="3">
         <v>10</v>
       </c>
+      <c r="D44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2</v>
+      </c>
       <c r="F44" s="3">
         <v>5</v>
       </c>
@@ -1977,9 +2269,12 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="J44" s="3">
+        <v>25</v>
+      </c>
       <c r="K44" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -1992,6 +2287,12 @@
       <c r="C45" s="3">
         <v>10</v>
       </c>
+      <c r="D45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2</v>
+      </c>
       <c r="F45" s="3">
         <v>5</v>
       </c>
@@ -2006,38 +2307,50 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="J45" s="3">
+        <v>26</v>
+      </c>
       <c r="K45" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>4</v>
-      </c>
-      <c r="B46" s="3">
-        <v>20</v>
-      </c>
-      <c r="C46" s="3">
-        <v>10</v>
-      </c>
-      <c r="F46" s="3">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="A46" s="14">
+        <v>4</v>
+      </c>
+      <c r="B46" s="14">
+        <v>20</v>
+      </c>
+      <c r="C46" s="14">
+        <v>10</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="14">
+        <v>2</v>
+      </c>
+      <c r="F46" s="14">
+        <v>5</v>
+      </c>
+      <c r="G46" s="14">
+        <v>5</v>
+      </c>
+      <c r="H46" s="14">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="14">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K46" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="J46" s="14">
+        <v>35</v>
+      </c>
+      <c r="K46" s="14">
+        <f t="shared" si="2"/>
+        <v>87.5</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -2050,6 +2363,12 @@
       <c r="C47" s="3">
         <v>10</v>
       </c>
+      <c r="D47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2</v>
+      </c>
       <c r="F47" s="3">
         <v>5</v>
       </c>
@@ -2064,9 +2383,12 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="J47" s="3">
+        <v>29</v>
+      </c>
       <c r="K47" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -2079,6 +2401,12 @@
       <c r="C48" s="3">
         <v>10</v>
       </c>
+      <c r="D48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
       <c r="F48" s="3">
         <v>5</v>
       </c>
@@ -2093,9 +2421,12 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="J48" s="3">
+        <v>17</v>
+      </c>
       <c r="K48" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -2108,6 +2439,12 @@
       <c r="C49" s="3">
         <v>10</v>
       </c>
+      <c r="D49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2</v>
+      </c>
       <c r="F49" s="3">
         <v>5</v>
       </c>
@@ -2122,9 +2459,12 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="J49" s="3">
+        <v>20</v>
+      </c>
       <c r="K49" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -2137,6 +2477,12 @@
       <c r="C50" s="3">
         <v>10</v>
       </c>
+      <c r="D50" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="3">
+        <v>3</v>
+      </c>
       <c r="F50" s="3">
         <v>5</v>
       </c>
@@ -2151,9 +2497,12 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="J50" s="3">
+        <v>26</v>
+      </c>
       <c r="K50" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -2166,6 +2515,12 @@
       <c r="C51" s="3">
         <v>10</v>
       </c>
+      <c r="D51" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2</v>
+      </c>
       <c r="F51" s="3">
         <v>5</v>
       </c>
@@ -2180,9 +2535,12 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="J51" s="3">
+        <v>19</v>
+      </c>
       <c r="K51" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -2195,6 +2553,12 @@
       <c r="C52" s="3">
         <v>10</v>
       </c>
+      <c r="D52" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3</v>
+      </c>
       <c r="F52" s="3">
         <v>5</v>
       </c>
@@ -2209,1021 +2573,1816 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="J52" s="3">
+        <v>29</v>
+      </c>
       <c r="K52" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="7">
+        <v>5</v>
+      </c>
+      <c r="B53" s="7">
+        <v>20</v>
+      </c>
+      <c r="C53" s="7">
+        <v>10</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="7">
+        <v>2</v>
+      </c>
+      <c r="F53" s="7">
+        <v>5</v>
+      </c>
+      <c r="G53" s="7">
+        <v>5</v>
+      </c>
+      <c r="H53" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I53" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J53" s="7">
+        <v>26</v>
+      </c>
+      <c r="K53" s="7">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>5</v>
+      </c>
+      <c r="B54" s="7">
+        <v>20</v>
+      </c>
+      <c r="C54" s="7">
+        <v>10</v>
+      </c>
+      <c r="D54" s="7">
+        <v>9</v>
+      </c>
+      <c r="E54" s="7">
+        <v>1</v>
+      </c>
+      <c r="F54" s="7">
+        <v>5</v>
+      </c>
+      <c r="G54" s="7">
+        <v>5</v>
+      </c>
+      <c r="H54" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I54" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J54" s="7">
+        <v>27</v>
+      </c>
+      <c r="K54" s="7">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>5</v>
+      </c>
+      <c r="B55" s="7">
+        <v>20</v>
+      </c>
+      <c r="C55" s="7">
+        <v>10</v>
+      </c>
+      <c r="D55" s="7">
+        <v>8</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1</v>
+      </c>
+      <c r="F55" s="7">
+        <v>5</v>
+      </c>
+      <c r="G55" s="7">
+        <v>5</v>
+      </c>
+      <c r="H55" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I55" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J55" s="7">
+        <v>30</v>
+      </c>
+      <c r="K55" s="7">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>5</v>
+      </c>
+      <c r="B56" s="7">
+        <v>20</v>
+      </c>
+      <c r="C56" s="7">
+        <v>10</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="7">
+        <v>2</v>
+      </c>
+      <c r="F56" s="7">
+        <v>5</v>
+      </c>
+      <c r="G56" s="7">
+        <v>5</v>
+      </c>
+      <c r="H56" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I56" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J56" s="7">
+        <v>29</v>
+      </c>
+      <c r="K56" s="7">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>5</v>
+      </c>
+      <c r="B57" s="7">
+        <v>20</v>
+      </c>
+      <c r="C57" s="7">
+        <v>10</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="7">
+        <v>2</v>
+      </c>
+      <c r="F57" s="7">
+        <v>5</v>
+      </c>
+      <c r="G57" s="7">
+        <v>5</v>
+      </c>
+      <c r="H57" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I57" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J57" s="7">
+        <v>26</v>
+      </c>
+      <c r="K57" s="7">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>5</v>
+      </c>
+      <c r="B58" s="8">
+        <v>20</v>
+      </c>
+      <c r="C58" s="8">
+        <v>10</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="8">
+        <v>2</v>
+      </c>
+      <c r="F58" s="8">
+        <v>5</v>
+      </c>
+      <c r="G58" s="8">
+        <v>5</v>
+      </c>
+      <c r="H58" s="8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I58" s="8">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J58" s="8">
+        <v>38</v>
+      </c>
+      <c r="K58" s="8">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>5</v>
+      </c>
+      <c r="B59" s="7">
+        <v>20</v>
+      </c>
+      <c r="C59" s="7">
+        <v>10</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" s="7">
+        <v>3</v>
+      </c>
+      <c r="F59" s="7">
+        <v>5</v>
+      </c>
+      <c r="G59" s="7">
+        <v>5</v>
+      </c>
+      <c r="H59" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I59" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J59" s="7">
+        <v>32</v>
+      </c>
+      <c r="K59" s="7">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>5</v>
+      </c>
+      <c r="B60" s="7">
+        <v>20</v>
+      </c>
+      <c r="C60" s="7">
+        <v>10</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="7">
+        <v>3</v>
+      </c>
+      <c r="F60" s="7">
+        <v>5</v>
+      </c>
+      <c r="G60" s="7">
+        <v>5</v>
+      </c>
+      <c r="H60" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I60" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J60" s="7">
+        <v>26</v>
+      </c>
+      <c r="K60" s="7">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>5</v>
+      </c>
+      <c r="B61" s="7">
+        <v>20</v>
+      </c>
+      <c r="C61" s="7">
+        <v>10</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="7">
+        <v>2</v>
+      </c>
+      <c r="F61" s="7">
+        <v>5</v>
+      </c>
+      <c r="G61" s="7">
+        <v>5</v>
+      </c>
+      <c r="H61" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I61" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J61" s="7">
+        <v>31</v>
+      </c>
+      <c r="K61" s="7">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>5</v>
+      </c>
+      <c r="B62" s="7">
+        <v>20</v>
+      </c>
+      <c r="C62" s="7">
+        <v>10</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="7">
+        <v>2</v>
+      </c>
+      <c r="F62" s="7">
+        <v>5</v>
+      </c>
+      <c r="G62" s="7">
+        <v>5</v>
+      </c>
+      <c r="H62" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I62" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J62" s="7">
+        <v>33</v>
+      </c>
+      <c r="K62" s="7">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
+        <v>5</v>
+      </c>
+      <c r="B63" s="7">
+        <v>20</v>
+      </c>
+      <c r="C63" s="7">
+        <v>10</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="7">
+        <v>2</v>
+      </c>
+      <c r="F63" s="7">
+        <v>5</v>
+      </c>
+      <c r="G63" s="7">
+        <v>5</v>
+      </c>
+      <c r="H63" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I63" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J63" s="7">
+        <v>31</v>
+      </c>
+      <c r="K63" s="7">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
+        <v>5</v>
+      </c>
+      <c r="B64" s="7">
+        <v>20</v>
+      </c>
+      <c r="C64" s="7">
+        <v>10</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="7">
+        <v>3</v>
+      </c>
+      <c r="F64" s="7">
+        <v>5</v>
+      </c>
+      <c r="G64" s="7">
+        <v>5</v>
+      </c>
+      <c r="H64" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I64" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J64" s="7">
+        <v>26</v>
+      </c>
+      <c r="K64" s="7">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
+        <v>5</v>
+      </c>
+      <c r="B65" s="7">
+        <v>20</v>
+      </c>
+      <c r="C65" s="7">
+        <v>10</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" s="7">
+        <v>3</v>
+      </c>
+      <c r="F65" s="7">
+        <v>5</v>
+      </c>
+      <c r="G65" s="7">
+        <v>5</v>
+      </c>
+      <c r="H65" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I65" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J65" s="7">
+        <v>33</v>
+      </c>
+      <c r="K65" s="7">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
+        <v>5</v>
+      </c>
+      <c r="B66" s="7">
+        <v>20</v>
+      </c>
+      <c r="C66" s="7">
+        <v>10</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" s="7">
+        <v>3</v>
+      </c>
+      <c r="F66" s="7">
+        <v>5</v>
+      </c>
+      <c r="G66" s="7">
+        <v>5</v>
+      </c>
+      <c r="H66" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I66" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J66" s="7">
+        <v>31</v>
+      </c>
+      <c r="K66" s="7">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
+        <v>5</v>
+      </c>
+      <c r="B67" s="7">
+        <v>20</v>
+      </c>
+      <c r="C67" s="7">
+        <v>10</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" s="7">
+        <v>3</v>
+      </c>
+      <c r="F67" s="7">
+        <v>5</v>
+      </c>
+      <c r="G67" s="7">
+        <v>5</v>
+      </c>
+      <c r="H67" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I67" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J67" s="7">
+        <v>33</v>
+      </c>
+      <c r="K67" s="7">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>5</v>
+      </c>
+      <c r="B68" s="7">
+        <v>20</v>
+      </c>
+      <c r="C68" s="7">
+        <v>10</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68" s="7">
+        <v>3</v>
+      </c>
+      <c r="F68" s="7">
+        <v>5</v>
+      </c>
+      <c r="G68" s="7">
+        <v>5</v>
+      </c>
+      <c r="H68" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I68" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J68" s="7">
+        <v>34</v>
+      </c>
+      <c r="K68" s="7">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>5</v>
+      </c>
+      <c r="B69" s="7">
+        <v>20</v>
+      </c>
+      <c r="C69" s="7">
+        <v>10</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" s="7">
+        <v>3</v>
+      </c>
+      <c r="F69" s="7">
+        <v>5</v>
+      </c>
+      <c r="G69" s="7">
+        <v>5</v>
+      </c>
+      <c r="H69" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I69" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J69" s="7">
+        <v>36</v>
+      </c>
+      <c r="K69" s="7">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
+        <v>5</v>
+      </c>
+      <c r="B70" s="7">
+        <v>20</v>
+      </c>
+      <c r="C70" s="7">
+        <v>10</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E70" s="7">
+        <v>3</v>
+      </c>
+      <c r="F70" s="7">
+        <v>5</v>
+      </c>
+      <c r="G70" s="7">
+        <v>5</v>
+      </c>
+      <c r="H70" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I70" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J70" s="7">
+        <v>36</v>
+      </c>
+      <c r="K70" s="7">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
+        <v>5</v>
+      </c>
+      <c r="B71" s="7">
+        <v>20</v>
+      </c>
+      <c r="C71" s="7">
+        <v>10</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71" s="7">
+        <v>3</v>
+      </c>
+      <c r="F71" s="7">
+        <v>5</v>
+      </c>
+      <c r="G71" s="7">
+        <v>5</v>
+      </c>
+      <c r="H71" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I71" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J71" s="7">
+        <v>35</v>
+      </c>
+      <c r="K71" s="7">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>5</v>
+      </c>
+      <c r="B72" s="7">
+        <v>20</v>
+      </c>
+      <c r="C72" s="7">
+        <v>10</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="7">
+        <v>3</v>
+      </c>
+      <c r="F72" s="7">
+        <v>5</v>
+      </c>
+      <c r="G72" s="7">
+        <v>5</v>
+      </c>
+      <c r="H72" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I72" s="7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J72" s="7">
+        <v>33</v>
+      </c>
+      <c r="K72" s="7">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="10">
-        <v>4</v>
-      </c>
-      <c r="B54" s="10">
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>4</v>
+      </c>
+      <c r="B74" s="5">
         <v>30</v>
       </c>
-      <c r="C54" s="10">
-        <v>10</v>
-      </c>
-      <c r="D54" s="10">
+      <c r="C74" s="5">
+        <v>10</v>
+      </c>
+      <c r="D74" s="5">
         <v>6</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E74" s="5">
         <v>1</v>
       </c>
-      <c r="F54" s="10">
-        <v>5</v>
-      </c>
-      <c r="G54" s="10">
-        <v>5</v>
-      </c>
-      <c r="H54" s="10">
+      <c r="F74" s="5">
+        <v>5</v>
+      </c>
+      <c r="G74" s="5">
+        <v>5</v>
+      </c>
+      <c r="H74" s="5">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I74" s="5">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="J54" s="10">
+      <c r="J74" s="5">
         <v>36</v>
       </c>
-      <c r="K54" s="10">
-        <f>J54*100/I54</f>
+      <c r="K74" s="5">
+        <f>J74*100/I74</f>
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="10">
-        <v>4</v>
-      </c>
-      <c r="B55" s="10">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
+        <v>4</v>
+      </c>
+      <c r="B75" s="5">
         <v>30</v>
       </c>
-      <c r="C55" s="10">
-        <v>10</v>
-      </c>
-      <c r="D55" s="10">
+      <c r="C75" s="5">
+        <v>10</v>
+      </c>
+      <c r="D75" s="5">
         <v>96</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E75" s="5">
         <v>1</v>
       </c>
-      <c r="F55" s="10">
-        <v>5</v>
-      </c>
-      <c r="G55" s="10">
-        <v>5</v>
-      </c>
-      <c r="H55" s="10">
+      <c r="F75" s="5">
+        <v>5</v>
+      </c>
+      <c r="G75" s="5">
+        <v>5</v>
+      </c>
+      <c r="H75" s="5">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I75" s="5">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="J55" s="10">
+      <c r="J75" s="5">
         <v>37</v>
       </c>
-      <c r="K55" s="10">
+      <c r="K75" s="5">
         <f t="shared" si="2"/>
         <v>92.5</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="11">
-        <v>4</v>
-      </c>
-      <c r="B56" s="11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
+        <v>4</v>
+      </c>
+      <c r="B76" s="6">
         <v>30</v>
       </c>
-      <c r="C56" s="11">
-        <v>10</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="C76" s="6">
+        <v>10</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="3">
-        <v>4</v>
-      </c>
-      <c r="F56" s="3">
-        <v>5</v>
-      </c>
-      <c r="G56" s="3">
-        <v>5</v>
-      </c>
-      <c r="H56" s="3">
+      <c r="E76" s="3">
+        <v>4</v>
+      </c>
+      <c r="F76" s="3">
+        <v>5</v>
+      </c>
+      <c r="G76" s="3">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I76" s="3">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J76" s="3">
         <v>31</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K76" s="3">
         <f t="shared" si="2"/>
         <v>77.5</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F57" s="3">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F58" s="3">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F59" s="3">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F60" s="3">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F61" s="3">
-        <v>5</v>
-      </c>
-      <c r="G61" s="3">
-        <v>5</v>
-      </c>
-      <c r="H61" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F62" s="3">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F63" s="3">
-        <v>5</v>
-      </c>
-      <c r="G63" s="3">
-        <v>5</v>
-      </c>
-      <c r="H63" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F64" s="3">
-        <v>5</v>
-      </c>
-      <c r="G64" s="3">
-        <v>5</v>
-      </c>
-      <c r="H64" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F65" s="3">
-        <v>5</v>
-      </c>
-      <c r="G65" s="3">
-        <v>5</v>
-      </c>
-      <c r="H65" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="66" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F66" s="3">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="67" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F67" s="3">
-        <v>5</v>
-      </c>
-      <c r="G67" s="3">
-        <v>5</v>
-      </c>
-      <c r="H67" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="68" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F68" s="3">
-        <v>5</v>
-      </c>
-      <c r="G68" s="3">
-        <v>5</v>
-      </c>
-      <c r="H68" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I68" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="69" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F69" s="3">
-        <v>5</v>
-      </c>
-      <c r="G69" s="3">
-        <v>5</v>
-      </c>
-      <c r="H69" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I69" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="70" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F70" s="3">
-        <v>5</v>
-      </c>
-      <c r="G70" s="3">
-        <v>5</v>
-      </c>
-      <c r="H70" s="3">
-        <f t="shared" ref="H70:H133" si="3">A70*B70</f>
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <f t="shared" ref="I70:I133" si="4">A70*C70</f>
-        <v>0</v>
-      </c>
-      <c r="K70" s="3" t="e">
-        <f t="shared" ref="K70:K117" si="5">J70*100/I70</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="71" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F71" s="3">
-        <v>5</v>
-      </c>
-      <c r="G71" s="3">
-        <v>5</v>
-      </c>
-      <c r="H71" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K71" s="3" t="e">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="6">
+        <v>4</v>
+      </c>
+      <c r="B77" s="6">
+        <v>30</v>
+      </c>
+      <c r="C77" s="6">
+        <v>10</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E77" s="3">
+        <v>2</v>
+      </c>
+      <c r="F77" s="3">
+        <v>5</v>
+      </c>
+      <c r="G77" s="3">
+        <v>5</v>
+      </c>
+      <c r="H77" s="3">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="I77" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J77" s="3">
+        <v>35</v>
+      </c>
+      <c r="K77" s="3">
+        <f t="shared" si="2"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <v>4</v>
+      </c>
+      <c r="B78" s="6">
+        <v>30</v>
+      </c>
+      <c r="C78" s="6">
+        <v>10</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E78" s="3">
+        <v>3</v>
+      </c>
+      <c r="F78" s="3">
+        <v>5</v>
+      </c>
+      <c r="G78" s="3">
+        <v>5</v>
+      </c>
+      <c r="H78" s="3">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="I78" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J78" s="3">
+        <v>34</v>
+      </c>
+      <c r="K78" s="3">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
+        <v>4</v>
+      </c>
+      <c r="B79" s="6">
+        <v>30</v>
+      </c>
+      <c r="C79" s="6">
+        <v>10</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" s="3">
+        <v>3</v>
+      </c>
+      <c r="F79" s="3">
+        <v>5</v>
+      </c>
+      <c r="G79" s="3">
+        <v>5</v>
+      </c>
+      <c r="H79" s="3">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="I79" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J79" s="3">
+        <v>28</v>
+      </c>
+      <c r="K79" s="3">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
+        <v>4</v>
+      </c>
+      <c r="B80" s="5">
+        <v>30</v>
+      </c>
+      <c r="C80" s="5">
+        <v>10</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" s="5">
+        <v>3</v>
+      </c>
+      <c r="F80" s="5">
+        <v>5</v>
+      </c>
+      <c r="G80" s="5">
+        <v>5</v>
+      </c>
+      <c r="H80" s="5">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="I80" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J80" s="5">
+        <v>36</v>
+      </c>
+      <c r="K80" s="5">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="5">
+        <v>4</v>
+      </c>
+      <c r="B81" s="5">
+        <v>30</v>
+      </c>
+      <c r="C81" s="5">
+        <v>10</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E81" s="5">
+        <v>3</v>
+      </c>
+      <c r="F81" s="5">
+        <v>5</v>
+      </c>
+      <c r="G81" s="5">
+        <v>5</v>
+      </c>
+      <c r="H81" s="5">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="I81" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J81" s="5">
+        <v>37</v>
+      </c>
+      <c r="K81" s="5">
+        <f>J81*100/I81</f>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="5">
+        <v>4</v>
+      </c>
+      <c r="B82" s="5">
+        <v>30</v>
+      </c>
+      <c r="C82" s="5">
+        <v>10</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E82" s="5">
+        <v>4</v>
+      </c>
+      <c r="F82" s="5">
+        <v>5</v>
+      </c>
+      <c r="G82" s="5">
+        <v>5</v>
+      </c>
+      <c r="H82" s="5">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="I82" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J82" s="5">
+        <v>36</v>
+      </c>
+      <c r="K82" s="5">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="6">
+        <v>5</v>
+      </c>
+      <c r="B83" s="6">
+        <v>30</v>
+      </c>
+      <c r="C83" s="6">
+        <v>10</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="I83" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J83" s="3">
+        <v>43</v>
+      </c>
+      <c r="K83" s="3">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="6">
+        <v>5</v>
+      </c>
+      <c r="B84" s="6">
+        <v>30</v>
+      </c>
+      <c r="C84" s="6">
+        <v>10</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E84" s="3">
+        <v>4</v>
+      </c>
+      <c r="F84" s="3">
+        <v>5</v>
+      </c>
+      <c r="G84" s="3">
+        <v>5</v>
+      </c>
+      <c r="H84" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="I84" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J84" s="3">
+        <v>41</v>
+      </c>
+      <c r="K84" s="3">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="5">
+        <v>5</v>
+      </c>
+      <c r="B85" s="5">
+        <v>30</v>
+      </c>
+      <c r="C85" s="5">
+        <v>10</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E85" s="5">
+        <v>3</v>
+      </c>
+      <c r="F85" s="5">
+        <v>5</v>
+      </c>
+      <c r="G85" s="5">
+        <v>5</v>
+      </c>
+      <c r="H85" s="5">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="I85" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J85" s="5">
+        <v>47</v>
+      </c>
+      <c r="K85" s="5">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="6">
+        <v>5</v>
+      </c>
+      <c r="B86" s="6">
+        <v>30</v>
+      </c>
+      <c r="C86" s="6">
+        <v>10</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E86" s="3">
+        <v>3</v>
+      </c>
+      <c r="F86" s="3">
+        <v>5</v>
+      </c>
+      <c r="G86" s="3">
+        <v>5</v>
+      </c>
+      <c r="H86" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="I86" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J86" s="3">
+        <v>36</v>
+      </c>
+      <c r="K86" s="3">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="6">
+        <v>5</v>
+      </c>
+      <c r="B87" s="6">
+        <v>30</v>
+      </c>
+      <c r="C87" s="6">
+        <v>10</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E87" s="3">
+        <v>3</v>
+      </c>
+      <c r="F87" s="3">
+        <v>5</v>
+      </c>
+      <c r="G87" s="3">
+        <v>5</v>
+      </c>
+      <c r="H87" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="I87" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J87" s="3">
+        <v>39</v>
+      </c>
+      <c r="K87" s="3">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="6">
+        <v>5</v>
+      </c>
+      <c r="B88" s="6">
+        <v>30</v>
+      </c>
+      <c r="C88" s="6">
+        <v>10</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E88" s="3">
+        <v>3</v>
+      </c>
+      <c r="F88" s="3">
+        <v>5</v>
+      </c>
+      <c r="G88" s="3">
+        <v>5</v>
+      </c>
+      <c r="H88" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="I88" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J88" s="3">
+        <v>42</v>
+      </c>
+      <c r="K88" s="3">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="5">
+        <v>5</v>
+      </c>
+      <c r="B89" s="5">
+        <v>30</v>
+      </c>
+      <c r="C89" s="5">
+        <v>10</v>
+      </c>
+      <c r="D89" s="5">
+        <v>60</v>
+      </c>
+      <c r="E89" s="5">
+        <v>1</v>
+      </c>
+      <c r="F89" s="5">
+        <v>5</v>
+      </c>
+      <c r="G89" s="5">
+        <v>5</v>
+      </c>
+      <c r="H89" s="5">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="I89" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J89" s="5">
+        <v>45</v>
+      </c>
+      <c r="K89" s="5">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="6">
+        <v>5</v>
+      </c>
+      <c r="B90" s="6">
+        <v>30</v>
+      </c>
+      <c r="C90" s="6">
+        <v>10</v>
+      </c>
+      <c r="D90" s="3">
+        <v>45</v>
+      </c>
+      <c r="E90" s="3">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3">
+        <v>5</v>
+      </c>
+      <c r="G90" s="3">
+        <v>5</v>
+      </c>
+      <c r="H90" s="3">
+        <f t="shared" ref="H90:H153" si="3">A90*B90</f>
+        <v>150</v>
+      </c>
+      <c r="I90" s="3">
+        <f t="shared" ref="I90:I153" si="4">A90*C90</f>
+        <v>50</v>
+      </c>
+      <c r="J90" s="3">
+        <v>42</v>
+      </c>
+      <c r="K90" s="3">
+        <f t="shared" ref="K90:K137" si="5">J90*100/I90</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="6">
+        <v>5</v>
+      </c>
+      <c r="B91" s="6">
+        <v>30</v>
+      </c>
+      <c r="C91" s="6">
+        <v>10</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E91" s="3">
+        <v>2</v>
+      </c>
+      <c r="F91" s="3">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="I91" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="J91" s="3">
+        <v>37</v>
+      </c>
+      <c r="K91" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="72" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F72" s="3">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="e">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
+        <v>5</v>
+      </c>
+      <c r="B92" s="5">
+        <v>30</v>
+      </c>
+      <c r="C92" s="5">
+        <v>10</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" s="5">
+        <v>2</v>
+      </c>
+      <c r="F92" s="5">
+        <v>5</v>
+      </c>
+      <c r="G92" s="5">
+        <v>5</v>
+      </c>
+      <c r="H92" s="5">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="I92" s="5">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="J92" s="5">
+        <v>45</v>
+      </c>
+      <c r="K92" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="73" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F73" s="3">
-        <v>5</v>
-      </c>
-      <c r="G73" s="3">
-        <v>5</v>
-      </c>
-      <c r="H73" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I73" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="3" t="e">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="6">
+        <v>5</v>
+      </c>
+      <c r="B93" s="6">
+        <v>30</v>
+      </c>
+      <c r="C93" s="6">
+        <v>10</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="3">
+        <v>3</v>
+      </c>
+      <c r="F93" s="3">
+        <v>5</v>
+      </c>
+      <c r="G93" s="3">
+        <v>5</v>
+      </c>
+      <c r="H93" s="3">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="I93" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="J93" s="3">
+        <v>39</v>
+      </c>
+      <c r="K93" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="74" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F74" s="3">
-        <v>5</v>
-      </c>
-      <c r="G74" s="3">
-        <v>5</v>
-      </c>
-      <c r="H74" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I74" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K74" s="3" t="e">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="6">
+        <v>5</v>
+      </c>
+      <c r="B94" s="6">
+        <v>30</v>
+      </c>
+      <c r="C94" s="6">
+        <v>10</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E94" s="3">
+        <v>2</v>
+      </c>
+      <c r="F94" s="3">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="I94" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="J94" s="3">
+        <v>42</v>
+      </c>
+      <c r="K94" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="75" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F75" s="3">
-        <v>5</v>
-      </c>
-      <c r="G75" s="3">
-        <v>5</v>
-      </c>
-      <c r="H75" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I75" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K75" s="3" t="e">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="6">
+        <v>5</v>
+      </c>
+      <c r="B95" s="6">
+        <v>30</v>
+      </c>
+      <c r="C95" s="6">
+        <v>10</v>
+      </c>
+      <c r="D95" s="3">
+        <v>36</v>
+      </c>
+      <c r="E95" s="3">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3">
+        <v>5</v>
+      </c>
+      <c r="G95" s="3">
+        <v>5</v>
+      </c>
+      <c r="H95" s="3">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="I95" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="J95" s="3">
+        <v>42</v>
+      </c>
+      <c r="K95" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="76" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F76" s="3">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
-        <v>5</v>
-      </c>
-      <c r="H76" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="e">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="6">
+        <v>5</v>
+      </c>
+      <c r="B96" s="6">
+        <v>30</v>
+      </c>
+      <c r="C96" s="6">
+        <v>10</v>
+      </c>
+      <c r="D96" s="3">
+        <v>13</v>
+      </c>
+      <c r="E96" s="3">
+        <v>1</v>
+      </c>
+      <c r="F96" s="3">
+        <v>5</v>
+      </c>
+      <c r="G96" s="3">
+        <v>5</v>
+      </c>
+      <c r="H96" s="3">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="I96" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="J96" s="3">
+        <v>44</v>
+      </c>
+      <c r="K96" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="77" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F77" s="3">
-        <v>5</v>
-      </c>
-      <c r="G77" s="3">
-        <v>5</v>
-      </c>
-      <c r="H77" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="3" t="e">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>5</v>
+      </c>
+      <c r="B97" s="3">
+        <v>30</v>
+      </c>
+      <c r="C97" s="3">
+        <v>10</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E97" s="3">
+        <v>2</v>
+      </c>
+      <c r="F97" s="3">
+        <v>5</v>
+      </c>
+      <c r="G97" s="3">
+        <v>5</v>
+      </c>
+      <c r="H97" s="3">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="I97" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="J97" s="3">
+        <v>42</v>
+      </c>
+      <c r="K97" s="3">
+        <f>J97*100/I97</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>5</v>
+      </c>
+      <c r="B98" s="3">
+        <v>30</v>
+      </c>
+      <c r="C98" s="3">
+        <v>10</v>
+      </c>
+      <c r="D98" s="3">
+        <v>12</v>
+      </c>
+      <c r="E98" s="3">
+        <v>1</v>
+      </c>
+      <c r="F98" s="3">
+        <v>5</v>
+      </c>
+      <c r="G98" s="3">
+        <v>5</v>
+      </c>
+      <c r="H98" s="3">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="I98" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="J98" s="3">
+        <v>44</v>
+      </c>
+      <c r="K98" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="78" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F78" s="3">
-        <v>5</v>
-      </c>
-      <c r="G78" s="3">
-        <v>5</v>
-      </c>
-      <c r="H78" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I78" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K78" s="3" t="e">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="5">
+        <v>5</v>
+      </c>
+      <c r="B99" s="5">
+        <v>30</v>
+      </c>
+      <c r="C99" s="5">
+        <v>10</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E99" s="5">
+        <v>2</v>
+      </c>
+      <c r="F99" s="5">
+        <v>5</v>
+      </c>
+      <c r="G99" s="5">
+        <v>5</v>
+      </c>
+      <c r="H99" s="5">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="I99" s="5">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="J99" s="5">
+        <v>45</v>
+      </c>
+      <c r="K99" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="79" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F79" s="3">
-        <v>5</v>
-      </c>
-      <c r="G79" s="3">
-        <v>5</v>
-      </c>
-      <c r="H79" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I79" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K79" s="3" t="e">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="5">
+        <v>5</v>
+      </c>
+      <c r="B100" s="5">
+        <v>30</v>
+      </c>
+      <c r="C100" s="5">
+        <v>10</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E100" s="5">
+        <v>2</v>
+      </c>
+      <c r="F100" s="5">
+        <v>5</v>
+      </c>
+      <c r="G100" s="5">
+        <v>5</v>
+      </c>
+      <c r="H100" s="5">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="I100" s="5">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="J100" s="5">
+        <v>47</v>
+      </c>
+      <c r="K100" s="5">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="80" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F80" s="3">
-        <v>5</v>
-      </c>
-      <c r="G80" s="3">
-        <v>5</v>
-      </c>
-      <c r="H80" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I80" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K80" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="81" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F81" s="3">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
-        <v>5</v>
-      </c>
-      <c r="H81" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="82" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F82" s="3">
-        <v>5</v>
-      </c>
-      <c r="G82" s="3">
-        <v>5</v>
-      </c>
-      <c r="H82" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I82" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K82" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="83" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F83" s="3">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="84" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F84" s="3">
-        <v>5</v>
-      </c>
-      <c r="G84" s="3">
-        <v>5</v>
-      </c>
-      <c r="H84" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I84" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K84" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="85" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F85" s="3">
-        <v>5</v>
-      </c>
-      <c r="G85" s="3">
-        <v>5</v>
-      </c>
-      <c r="H85" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I85" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K85" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="86" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F86" s="3">
-        <v>5</v>
-      </c>
-      <c r="G86" s="3">
-        <v>5</v>
-      </c>
-      <c r="H86" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I86" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K86" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="87" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F87" s="3">
-        <v>5</v>
-      </c>
-      <c r="G87" s="3">
-        <v>5</v>
-      </c>
-      <c r="H87" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I87" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K87" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="88" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F88" s="3">
-        <v>5</v>
-      </c>
-      <c r="G88" s="3">
-        <v>5</v>
-      </c>
-      <c r="H88" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I88" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K88" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="89" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F89" s="3">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="90" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F90" s="3">
-        <v>5</v>
-      </c>
-      <c r="G90" s="3">
-        <v>5</v>
-      </c>
-      <c r="H90" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I90" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K90" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="91" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F91" s="3">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="92" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F92" s="3">
-        <v>5</v>
-      </c>
-      <c r="G92" s="3">
-        <v>5</v>
-      </c>
-      <c r="H92" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I92" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K92" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="93" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F93" s="3">
-        <v>5</v>
-      </c>
-      <c r="G93" s="3">
-        <v>5</v>
-      </c>
-      <c r="H93" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I93" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K93" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="94" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F94" s="3">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="95" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F95" s="3">
-        <v>5</v>
-      </c>
-      <c r="G95" s="3">
-        <v>5</v>
-      </c>
-      <c r="H95" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I95" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K95" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="96" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F96" s="3">
-        <v>5</v>
-      </c>
-      <c r="G96" s="3">
-        <v>5</v>
-      </c>
-      <c r="H96" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K96" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="97" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F97" s="3">
-        <v>5</v>
-      </c>
-      <c r="G97" s="3">
-        <v>5</v>
-      </c>
-      <c r="H97" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I97" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K97" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="98" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F98" s="3">
-        <v>5</v>
-      </c>
-      <c r="G98" s="3">
-        <v>5</v>
-      </c>
-      <c r="H98" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I98" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K98" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="99" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F99" s="3">
-        <v>5</v>
-      </c>
-      <c r="G99" s="3">
-        <v>5</v>
-      </c>
-      <c r="H99" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I99" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K99" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="100" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F100" s="3">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="101" spans="6:11" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F101" s="3">
         <v>5</v>
       </c>
@@ -3243,7 +4402,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="102" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F102" s="3">
         <v>5</v>
       </c>
@@ -3263,7 +4422,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="103" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F103" s="3">
         <v>5</v>
       </c>
@@ -3283,7 +4442,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="104" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F104" s="3">
         <v>5</v>
       </c>
@@ -3303,7 +4462,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="105" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F105" s="3">
         <v>5</v>
       </c>
@@ -3323,7 +4482,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="106" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F106" s="3">
         <v>5</v>
       </c>
@@ -3343,7 +4502,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="107" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F107" s="3">
         <v>5</v>
       </c>
@@ -3363,7 +4522,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="108" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F108" s="3">
         <v>5</v>
       </c>
@@ -3383,7 +4542,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="109" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F109" s="3">
         <v>5</v>
       </c>
@@ -3403,7 +4562,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="110" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F110" s="3">
         <v>5</v>
       </c>
@@ -3423,7 +4582,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="111" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F111" s="3">
         <v>5</v>
       </c>
@@ -3443,7 +4602,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="112" spans="6:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F112" s="3">
         <v>5</v>
       </c>
@@ -3564,6 +4723,12 @@
       </c>
     </row>
     <row r="118" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F118" s="3">
+        <v>5</v>
+      </c>
+      <c r="G118" s="3">
+        <v>5</v>
+      </c>
       <c r="H118" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3572,8 +4737,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K118" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="119" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F119" s="3">
+        <v>5</v>
+      </c>
+      <c r="G119" s="3">
+        <v>5</v>
+      </c>
       <c r="H119" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3582,8 +4757,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K119" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="120" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F120" s="3">
+        <v>5</v>
+      </c>
+      <c r="G120" s="3">
+        <v>5</v>
+      </c>
       <c r="H120" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3592,8 +4777,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K120" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="121" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F121" s="3">
+        <v>5</v>
+      </c>
+      <c r="G121" s="3">
+        <v>5</v>
+      </c>
       <c r="H121" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3602,8 +4797,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K121" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="122" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F122" s="3">
+        <v>5</v>
+      </c>
+      <c r="G122" s="3">
+        <v>5</v>
+      </c>
       <c r="H122" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3612,8 +4817,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K122" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="123" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F123" s="3">
+        <v>5</v>
+      </c>
+      <c r="G123" s="3">
+        <v>5</v>
+      </c>
       <c r="H123" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3622,8 +4837,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K123" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="124" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F124" s="3">
+        <v>5</v>
+      </c>
+      <c r="G124" s="3">
+        <v>5</v>
+      </c>
       <c r="H124" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3632,8 +4857,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K124" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="125" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F125" s="3">
+        <v>5</v>
+      </c>
+      <c r="G125" s="3">
+        <v>5</v>
+      </c>
       <c r="H125" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3642,8 +4877,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K125" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="126" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F126" s="3">
+        <v>5</v>
+      </c>
+      <c r="G126" s="3">
+        <v>5</v>
+      </c>
       <c r="H126" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3652,8 +4897,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K126" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="127" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F127" s="3">
+        <v>5</v>
+      </c>
+      <c r="G127" s="3">
+        <v>5</v>
+      </c>
       <c r="H127" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3662,8 +4917,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K127" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="128" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F128" s="3">
+        <v>5</v>
+      </c>
+      <c r="G128" s="3">
+        <v>5</v>
+      </c>
       <c r="H128" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3672,8 +4937,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="K128" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="129" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F129" s="3">
+        <v>5</v>
+      </c>
+      <c r="G129" s="3">
+        <v>5</v>
+      </c>
       <c r="H129" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3682,8 +4957,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="K129" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="130" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F130" s="3">
+        <v>5</v>
+      </c>
+      <c r="G130" s="3">
+        <v>5</v>
+      </c>
       <c r="H130" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3692,8 +4977,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="K130" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="131" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F131" s="3">
+        <v>5</v>
+      </c>
+      <c r="G131" s="3">
+        <v>5</v>
+      </c>
       <c r="H131" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3702,8 +4997,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="K131" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="132" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F132" s="3">
+        <v>5</v>
+      </c>
+      <c r="G132" s="3">
+        <v>5</v>
+      </c>
       <c r="H132" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3712,8 +5017,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="K132" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="133" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F133" s="3">
+        <v>5</v>
+      </c>
+      <c r="G133" s="3">
+        <v>5</v>
+      </c>
       <c r="H133" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3722,214 +5037,258 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="K133" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="134" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F134" s="3">
+        <v>5</v>
+      </c>
+      <c r="G134" s="3">
+        <v>5</v>
+      </c>
       <c r="H134" s="3">
-        <f t="shared" ref="H134:H181" si="6">A134*B134</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I134" s="3">
-        <f t="shared" ref="I134:I181" si="7">A134*C134</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K134" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="135" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F135" s="3">
+        <v>5</v>
+      </c>
+      <c r="G135" s="3">
+        <v>5</v>
+      </c>
       <c r="H135" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I135" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K135" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="136" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F136" s="3">
+        <v>5</v>
+      </c>
+      <c r="G136" s="3">
+        <v>5</v>
+      </c>
       <c r="H136" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I136" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K136" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="137" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="F137" s="3">
+        <v>5</v>
+      </c>
+      <c r="G137" s="3">
+        <v>5</v>
+      </c>
       <c r="H137" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I137" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K137" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="138" spans="6:11" x14ac:dyDescent="0.3">
       <c r="H138" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I138" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="6:11" x14ac:dyDescent="0.3">
       <c r="H139" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I139" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="6:11" x14ac:dyDescent="0.3">
       <c r="H140" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I140" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="6:11" x14ac:dyDescent="0.3">
       <c r="H141" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I141" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="6:11" x14ac:dyDescent="0.3">
       <c r="H142" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I142" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="6:11" x14ac:dyDescent="0.3">
       <c r="H143" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I143" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="6:11" x14ac:dyDescent="0.3">
       <c r="H144" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I144" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H145" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I145" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H146" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I146" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H147" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I147" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H148" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I148" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H149" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I149" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H150" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I150" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H151" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I151" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H152" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I152" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H153" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I153" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H154" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H154:H201" si="6">A154*B154</f>
         <v>0</v>
       </c>
       <c r="I154" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="I154:I201" si="7">A154*C154</f>
         <v>0</v>
       </c>
     </row>
@@ -4199,6 +5558,206 @@
         <v>0</v>
       </c>
       <c r="I181" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H182" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I182" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H183" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I183" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H184" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I184" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H185" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I185" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H186" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I186" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H187" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I187" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H188" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I188" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H189" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I189" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H190" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I190" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H191" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I191" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H192" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I192" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H193" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I193" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H194" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I194" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H195" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I195" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H196" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I196" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H197" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I197" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H198" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I198" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H199" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I199" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H200" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I200" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H201" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I201" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -4207,7 +5766,7 @@
   <mergeCells count="3">
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A27:L27"/>
-    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A73:K73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
